--- a/Resource/excel/table/K-框架-条件定义-(框架定义,后端维护).xlsx
+++ b/Resource/excel/table/K-框架-条件定义-(框架定义,后端维护).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -297,7 +297,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="95">
   <si>
     <t>条件名称</t>
   </si>
@@ -608,6 +608,26 @@
       </rPr>
       <t>std::vector&lt;{}&gt;,条件触发数据</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗场数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>fight</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>player</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>roomid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1272,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2101,6 +2121,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="20">
+        <v>0</v>
+      </c>
+      <c r="G22" s="20">
+        <v>0</v>
+      </c>
+      <c r="H22" s="20">
+        <v>3</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="20">
+        <v>16</v>
+      </c>
+      <c r="K22" s="20">
+        <v>0</v>
+      </c>
+      <c r="L22" s="20">
+        <v>0</v>
+      </c>
+      <c r="M22" s="20">
+        <v>1</v>
+      </c>
+      <c r="N22" s="20">
+        <v>0</v>
+      </c>
+      <c r="O22" s="20">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C15">

--- a/Resource/excel/table/K-框架-条件定义-(框架定义,后端维护).xlsx
+++ b/Resource/excel/table/K-框架-条件定义-(框架定义,后端维护).xlsx
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
   <si>
     <t>xml=conditiondefine</t>
   </si>
@@ -557,7 +557,16 @@
     <t>获得buff次数</t>
   </si>
   <si>
+    <t>(id=1限制id）</t>
+  </si>
+  <si>
     <t>buffcount</t>
+  </si>
+  <si>
+    <t>buffer</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
@@ -565,10 +574,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -611,29 +620,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,31 +663,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -709,16 +695,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,7 +726,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,22 +769,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -824,61 +833,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,115 +971,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,23 +1034,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1088,6 +1088,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1095,21 +1110,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,162 +1128,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1778,10 +1769,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2655,15 +2646,17 @@
       <c r="A23" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="C23" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F23" s="11">
         <v>0</v>
@@ -2672,39 +2665,86 @@
         <v>0</v>
       </c>
       <c r="H23" s="11">
+        <v>1</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <v>1</v>
+      </c>
+      <c r="N23" s="11">
+        <v>1</v>
+      </c>
+      <c r="O23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" s="11" customFormat="1" spans="1:15">
+      <c r="A24" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
         <v>3</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I24" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="J23" s="11">
-        <v>0</v>
-      </c>
-      <c r="K23" s="11">
-        <v>0</v>
-      </c>
-      <c r="L23" s="11">
-        <v>0</v>
-      </c>
-      <c r="M23" s="11">
-        <v>1</v>
-      </c>
-      <c r="N23" s="11">
-        <v>1</v>
-      </c>
-      <c r="O23" s="11">
+      <c r="J24" s="11">
+        <v>0</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0</v>
+      </c>
+      <c r="M24" s="11">
+        <v>1</v>
+      </c>
+      <c r="N24" s="11">
+        <v>1</v>
+      </c>
+      <c r="O24" s="11">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C15">
+    <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
     <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
+  <conditionalFormatting sqref="A24">
     <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14 A22 A24:A65431">
-    <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
+  <conditionalFormatting sqref="C14 A22 A25:A65431">
+    <cfRule type="duplicateValues" dxfId="0" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Resource/excel/table/K-框架-条件定义-(框架定义,后端维护).xlsx
+++ b/Resource/excel/table/K-框架-条件定义-(框架定义,后端维护).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\table\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="24260" tabRatio="710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="24255" tabRatio="710"/>
   </bookViews>
   <sheets>
     <sheet name="conditiondefine" sheetId="14" r:id="rId1"/>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -24,13 +29,14 @@
     <author>PCC</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -44,13 +50,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="1">
+    <comment ref="I6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -59,6 +66,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -69,13 +77,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="N6" authorId="1">
+    <comment ref="N6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -84,6 +93,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -94,13 +104,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="O6" authorId="1">
+    <comment ref="O6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -109,6 +120,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -116,13 +128,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="2">
+    <comment ref="F7" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -131,6 +144,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -141,13 +155,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="2">
+    <comment ref="H7" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -156,6 +171,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -165,12 +181,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="2">
+    <comment ref="J7" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> 11 大于
@@ -183,13 +200,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="K7" authorId="2">
+    <comment ref="K7" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -198,6 +216,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -207,13 +226,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="1">
+    <comment ref="L7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -222,6 +242,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -231,13 +252,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="M7" authorId="1">
+    <comment ref="M7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -246,6 +268,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -262,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="121">
   <si>
     <t>xml=conditiondefine</t>
   </si>
@@ -281,6 +304,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ConditionTrigger=1,</t>
@@ -290,6 +314,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>std::vector&lt;{}&gt;,条件触发数据</t>
@@ -554,32 +579,117 @@
     <t>roomid</t>
   </si>
   <si>
+    <t>(id=1限制id）</t>
+  </si>
+  <si>
+    <t>buffcount</t>
+  </si>
+  <si>
+    <t>buffer</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>完成某关卡次数</t>
+  </si>
+  <si>
+    <t>finishlevel</t>
+  </si>
+  <si>
+    <t>finishlevellist</t>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>获得buff次数</t>
-  </si>
-  <si>
-    <t>(id=1限制id）</t>
-  </si>
-  <si>
-    <t>buffcount</t>
-  </si>
-  <si>
-    <t>buffer</t>
-  </si>
-  <si>
-    <t>value</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>某关卡进入密道次数</t>
+  </si>
+  <si>
+    <t>获得某道具N次</t>
+  </si>
+  <si>
+    <t>跳过障碍次数</t>
+  </si>
+  <si>
+    <t>无伤完成某关卡次数</t>
+  </si>
+  <si>
+    <t>extrapathlist</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>extrapath</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>getitemlist</t>
+  </si>
+  <si>
+    <t>getitem</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>getitem</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>jumppasslist</t>
+  </si>
+  <si>
+    <t>jumppass</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>jumppass</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>finishnodmg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>finishnodmg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>finishnodmglist</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -590,18 +700,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -609,6 +722,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
@@ -616,161 +730,24 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -791,13 +768,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,180 +798,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1030,251 +839,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1343,58 +910,10 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1407,7 +926,37 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1423,18 +972,21 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="2"/>
-      <tableStyleElement type="headerRow" dxfId="1"/>
+      <tableStyleElement type="wholeTable" dxfId="5"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="0005FF6F"/>
+      <color rgb="FF05FF6F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1763,24 +1315,24 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:O24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.875" style="12" customWidth="1"/>
     <col min="2" max="2" width="29.875" style="11" customWidth="1"/>
     <col min="3" max="3" width="21.625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="11" customWidth="1"/>
     <col min="5" max="5" width="51.875" style="11" customWidth="1"/>
     <col min="6" max="6" width="18.375" style="11" customWidth="1"/>
     <col min="7" max="7" width="18.25" style="11" customWidth="1"/>
@@ -1794,7 +1346,7 @@
     <col min="16" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17" spans="1:5">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1811,7 +1363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="16.8" spans="1:15">
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1855,7 +1407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="16.8" spans="1:15">
+    <row r="3" spans="1:15" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1899,17 +1451,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="16.8" spans="1:1">
+    <row r="4" spans="1:15" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" ht="16.8" spans="1:1">
+    <row r="5" spans="1:15" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" ht="16.8" spans="1:15">
+    <row r="6" spans="1:15" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1956,7 +1508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" ht="16.8" spans="1:15">
+    <row r="7" spans="1:15" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -2003,7 +1555,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="1" ht="16.8" spans="1:15">
+    <row r="8" spans="1:15" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -2044,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="7" customFormat="1" ht="16.8" spans="1:15">
+    <row r="9" spans="1:15" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>47</v>
       </c>
@@ -2085,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="7" customFormat="1" ht="16.8" spans="1:15">
+    <row r="10" spans="1:15" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>50</v>
       </c>
@@ -2126,7 +1678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="7" customFormat="1" ht="16.8" spans="1:15">
+    <row r="11" spans="1:15" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>53</v>
       </c>
@@ -2167,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="8" customFormat="1" ht="16.8" spans="1:15">
+    <row r="12" spans="1:15" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>55</v>
       </c>
@@ -2214,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="8" customFormat="1" ht="16.8" spans="1:15">
+    <row r="13" spans="1:15" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>59</v>
       </c>
@@ -2261,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="9" customFormat="1" ht="16.8" spans="1:15">
+    <row r="14" spans="1:15" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -2302,7 +1854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="9" customFormat="1" ht="16.8" spans="1:15">
+    <row r="15" spans="1:15" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
         <v>65</v>
       </c>
@@ -2343,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="10" customFormat="1" ht="16.8" spans="1:15">
+    <row r="16" spans="1:15" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>68</v>
       </c>
@@ -2384,7 +1936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="10" customFormat="1" ht="16.8" spans="1:15">
+    <row r="17" spans="1:15" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>71</v>
       </c>
@@ -2425,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" s="10" customFormat="1" ht="16.8" spans="1:15">
+    <row r="18" spans="1:15" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
         <v>74</v>
       </c>
@@ -2466,7 +2018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="7" customFormat="1" ht="16.8" spans="1:15">
+    <row r="19" spans="1:15" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>77</v>
       </c>
@@ -2510,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="7" customFormat="1" ht="16.8" spans="1:15">
+    <row r="20" spans="1:15" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>80</v>
       </c>
@@ -2554,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="10" customFormat="1" ht="16.8" spans="1:15">
+    <row r="21" spans="1:15" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>84</v>
       </c>
@@ -2598,7 +2150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>88</v>
       </c>
@@ -2642,21 +2194,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" s="11" customFormat="1" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="D23" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="E23" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>95</v>
       </c>
       <c r="F23" s="11">
         <v>0</v>
@@ -2689,18 +2241,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="11" customFormat="1" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>95</v>
       </c>
       <c r="F24" s="11">
         <v>0</v>
@@ -2733,22 +2285,521 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>1</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <v>1</v>
+      </c>
+      <c r="N25" s="11">
+        <v>1</v>
+      </c>
+      <c r="O25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0</v>
+      </c>
+      <c r="G26" s="11">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <v>3</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0</v>
+      </c>
+      <c r="L26" s="11">
+        <v>0</v>
+      </c>
+      <c r="M26" s="11">
+        <v>1</v>
+      </c>
+      <c r="N26" s="11">
+        <v>1</v>
+      </c>
+      <c r="O26" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
+        <v>1</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>1</v>
+      </c>
+      <c r="N27" s="11">
+        <v>1</v>
+      </c>
+      <c r="O27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0</v>
+      </c>
+      <c r="H28" s="11">
+        <v>3</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0</v>
+      </c>
+      <c r="L28" s="11">
+        <v>0</v>
+      </c>
+      <c r="M28" s="11">
+        <v>1</v>
+      </c>
+      <c r="N28" s="11">
+        <v>1</v>
+      </c>
+      <c r="O28" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0</v>
+      </c>
+      <c r="H29" s="11">
+        <v>1</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <v>1</v>
+      </c>
+      <c r="N29" s="11">
+        <v>1</v>
+      </c>
+      <c r="O29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0</v>
+      </c>
+      <c r="G30" s="11">
+        <v>0</v>
+      </c>
+      <c r="H30" s="11">
+        <v>3</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
+        <v>1</v>
+      </c>
+      <c r="N30" s="11">
+        <v>1</v>
+      </c>
+      <c r="O30" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0</v>
+      </c>
+      <c r="G31" s="11">
+        <v>0</v>
+      </c>
+      <c r="H31" s="11">
+        <v>1</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J31" s="11">
+        <v>0</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0</v>
+      </c>
+      <c r="L31" s="11">
+        <v>0</v>
+      </c>
+      <c r="M31" s="11">
+        <v>1</v>
+      </c>
+      <c r="N31" s="11">
+        <v>1</v>
+      </c>
+      <c r="O31" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
+        <v>3</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0</v>
+      </c>
+      <c r="K32" s="11">
+        <v>0</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0</v>
+      </c>
+      <c r="M32" s="11">
+        <v>1</v>
+      </c>
+      <c r="N32" s="11">
+        <v>1</v>
+      </c>
+      <c r="O32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="11">
+        <v>0</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0</v>
+      </c>
+      <c r="H33" s="11">
+        <v>1</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0</v>
+      </c>
+      <c r="L33" s="11">
+        <v>0</v>
+      </c>
+      <c r="M33" s="11">
+        <v>1</v>
+      </c>
+      <c r="N33" s="11">
+        <v>1</v>
+      </c>
+      <c r="O33" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0</v>
+      </c>
+      <c r="H34" s="11">
+        <v>3</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <v>1</v>
+      </c>
+      <c r="N34" s="11">
+        <v>1</v>
+      </c>
+      <c r="O34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0</v>
+      </c>
+      <c r="H35" s="11">
+        <v>3</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J35" s="11">
+        <v>0</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0</v>
+      </c>
+      <c r="M35" s="11">
+        <v>1</v>
+      </c>
+      <c r="N35" s="11">
+        <v>1</v>
+      </c>
+      <c r="O35" s="11">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C15">
-    <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14 A22 A25:A65431">
     <cfRule type="duplicateValues" dxfId="0" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resource/excel/table/K-框架-条件定义-(框架定义,后端维护).xlsx
+++ b/Resource/excel/table/K-框架-条件定义-(框架定义,后端维护).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\table\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="24255" tabRatio="710"/>
+    <workbookView windowHeight="24260" tabRatio="710"/>
   </bookViews>
   <sheets>
     <sheet name="conditiondefine" sheetId="14" r:id="rId1"/>
@@ -29,14 +24,13 @@
     <author>PCC</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -50,14 +44,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="1" shapeId="0">
+    <comment ref="I6" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -66,7 +59,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -77,14 +69,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="N6" authorId="1" shapeId="0">
+    <comment ref="N6" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -93,7 +84,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -104,14 +94,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="O6" authorId="1" shapeId="0">
+    <comment ref="O6" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -120,7 +109,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -128,14 +116,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="2" shapeId="0">
+    <comment ref="F7" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -144,7 +131,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -155,14 +141,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="2" shapeId="0">
+    <comment ref="H7" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -171,7 +156,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -181,13 +165,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="2" shapeId="0">
+    <comment ref="J7" authorId="2">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> 11 大于
@@ -200,14 +183,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="K7" authorId="2" shapeId="0">
+    <comment ref="K7" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -216,7 +198,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -226,14 +207,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="1" shapeId="0">
+    <comment ref="L7" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -242,7 +222,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -252,14 +231,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="M7" authorId="1" shapeId="0">
+    <comment ref="M7" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -268,7 +246,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -285,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
   <si>
     <t>xml=conditiondefine</t>
   </si>
@@ -304,7 +281,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ConditionTrigger=1,</t>
@@ -314,7 +290,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>std::vector&lt;{}&gt;,条件触发数据</t>
@@ -579,6 +554,9 @@
     <t>roomid</t>
   </si>
   <si>
+    <t>获得buff次数</t>
+  </si>
+  <si>
     <t>(id=1限制id）</t>
   </si>
   <si>
@@ -600,96 +578,71 @@
     <t>finishlevellist</t>
   </si>
   <si>
-    <t>value</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得buff次数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>某关卡进入密道次数</t>
   </si>
   <si>
+    <t>extrapath</t>
+  </si>
+  <si>
+    <t>extrapathlist</t>
+  </si>
+  <si>
     <t>获得某道具N次</t>
   </si>
   <si>
+    <t>getitem</t>
+  </si>
+  <si>
+    <t>getitemlist</t>
+  </si>
+  <si>
     <t>跳过障碍次数</t>
   </si>
   <si>
+    <t>jumppass</t>
+  </si>
+  <si>
+    <t>jumppasslist</t>
+  </si>
+  <si>
     <t>无伤完成某关卡次数</t>
   </si>
   <si>
-    <t>extrapathlist</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>extrapath</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>getitemlist</t>
-  </si>
-  <si>
-    <t>getitem</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>getitem</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>jumppasslist</t>
-  </si>
-  <si>
-    <t>jumppass</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>jumppass</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>finishnodmg</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>finishnodmg</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>finishnodmglist</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>里程数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>score</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>today</t>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>每日在线时长</t>
+  </si>
+  <si>
+    <t>dayonlinetime</t>
+  </si>
+  <si>
+    <t>onlinetime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -700,21 +653,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -722,7 +672,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
@@ -730,24 +679,161 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -768,13 +854,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,12 +884,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79992065187536243"/>
+        <fgColor theme="9" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -839,9 +1111,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -879,12 +1393,12 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -910,10 +1424,58 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -926,37 +1488,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -972,21 +1504,18 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="5"/>
-      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="wholeTable" dxfId="2"/>
+      <tableStyleElement type="headerRow" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="FF05FF6F"/>
+      <color rgb="0005FF6F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1315,38 +1844,38 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="29.875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="29.875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="51.875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="18.25" style="11" customWidth="1"/>
-    <col min="8" max="8" width="27.25" style="11" customWidth="1"/>
+    <col min="1" max="1" width="29.875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="51.875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="18.25" style="12" customWidth="1"/>
+    <col min="8" max="8" width="27.25" style="12" customWidth="1"/>
     <col min="9" max="9" width="27.25" style="13" customWidth="1"/>
-    <col min="10" max="10" width="21.625" style="11" customWidth="1"/>
-    <col min="11" max="12" width="27.25" style="11" customWidth="1"/>
-    <col min="13" max="13" width="17.125" style="11" customWidth="1"/>
-    <col min="14" max="14" width="13.75" style="11" customWidth="1"/>
-    <col min="15" max="15" width="15" style="11" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="11"/>
+    <col min="10" max="10" width="21.625" style="12" customWidth="1"/>
+    <col min="11" max="12" width="27.25" style="12" customWidth="1"/>
+    <col min="13" max="13" width="17.125" style="12" customWidth="1"/>
+    <col min="14" max="14" width="13.75" style="12" customWidth="1"/>
+    <col min="15" max="15" width="15" style="12" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="17" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1363,7 +1892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="2" s="2" customFormat="1" ht="16.8" spans="1:15">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1407,7 +1936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="3" s="3" customFormat="1" ht="16.8" spans="1:15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1451,17 +1980,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="4" s="4" customFormat="1" ht="16.8" spans="1:1">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="5" s="4" customFormat="1" ht="16.8" spans="1:1">
       <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="6" s="5" customFormat="1" ht="16.8" spans="1:15">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1508,7 +2037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="7" s="6" customFormat="1" ht="16.8" spans="1:15">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -1555,7 +2084,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="8" s="7" customFormat="1" ht="16.8" spans="1:15">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -1596,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="9" s="7" customFormat="1" ht="16.8" spans="1:15">
       <c r="A9" s="7" t="s">
         <v>47</v>
       </c>
@@ -1637,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="10" s="7" customFormat="1" ht="16.8" spans="1:15">
       <c r="A10" s="7" t="s">
         <v>50</v>
       </c>
@@ -1678,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="11" s="7" customFormat="1" ht="16.8" spans="1:15">
       <c r="A11" s="7" t="s">
         <v>53</v>
       </c>
@@ -1719,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="12" s="8" customFormat="1" ht="16.8" spans="1:15">
       <c r="A12" s="8" t="s">
         <v>55</v>
       </c>
@@ -1766,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="13" s="8" customFormat="1" ht="16.8" spans="1:15">
       <c r="A13" s="8" t="s">
         <v>59</v>
       </c>
@@ -1813,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="14" s="9" customFormat="1" ht="16.8" spans="1:15">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -1854,7 +2383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="15" s="9" customFormat="1" ht="16.8" spans="1:15">
       <c r="A15" s="15" t="s">
         <v>65</v>
       </c>
@@ -1895,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="16" s="10" customFormat="1" ht="16.8" spans="1:15">
       <c r="A16" s="10" t="s">
         <v>68</v>
       </c>
@@ -1936,7 +2465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="17" s="10" customFormat="1" ht="16.8" spans="1:15">
       <c r="A17" s="10" t="s">
         <v>71</v>
       </c>
@@ -1977,7 +2506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="18" s="10" customFormat="1" ht="16.8" spans="1:15">
       <c r="A18" s="10" t="s">
         <v>74</v>
       </c>
@@ -2018,7 +2547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="19" s="7" customFormat="1" ht="16.8" spans="1:15">
       <c r="A19" s="7" t="s">
         <v>77</v>
       </c>
@@ -2062,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="20" s="7" customFormat="1" ht="16.8" spans="1:15">
       <c r="A20" s="7" t="s">
         <v>80</v>
       </c>
@@ -2106,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="21" s="10" customFormat="1" ht="16.8" spans="1:15">
       <c r="A21" s="10" t="s">
         <v>84</v>
       </c>
@@ -2150,656 +2679,700 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:15">
+      <c r="A22" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="11">
-        <v>0</v>
-      </c>
-      <c r="G22" s="11">
-        <v>0</v>
-      </c>
-      <c r="H22" s="11">
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0</v>
+      </c>
+      <c r="H22" s="12">
         <v>3</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="12">
         <v>16</v>
       </c>
-      <c r="K22" s="11">
-        <v>0</v>
-      </c>
-      <c r="L22" s="11">
-        <v>0</v>
-      </c>
-      <c r="M22" s="11">
-        <v>1</v>
-      </c>
-      <c r="N22" s="11">
-        <v>0</v>
-      </c>
-      <c r="O22" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="11" t="s">
+      <c r="K22" s="12">
+        <v>0</v>
+      </c>
+      <c r="L22" s="12">
+        <v>0</v>
+      </c>
+      <c r="M22" s="12">
+        <v>1</v>
+      </c>
+      <c r="N22" s="12">
+        <v>0</v>
+      </c>
+      <c r="O22" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="D23" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="11">
-        <v>0</v>
-      </c>
-      <c r="G23" s="11">
-        <v>0</v>
-      </c>
-      <c r="H23" s="11">
+      <c r="E23" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0</v>
+      </c>
+      <c r="H23" s="12">
         <v>1</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J23" s="11">
-        <v>0</v>
-      </c>
-      <c r="K23" s="11">
-        <v>0</v>
-      </c>
-      <c r="L23" s="11">
-        <v>0</v>
-      </c>
-      <c r="M23" s="11">
-        <v>1</v>
-      </c>
-      <c r="N23" s="11">
-        <v>1</v>
-      </c>
-      <c r="O23" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="J23" s="12">
+        <v>0</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0</v>
+      </c>
+      <c r="M23" s="12">
+        <v>1</v>
+      </c>
+      <c r="N23" s="12">
+        <v>1</v>
+      </c>
+      <c r="O23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="D24" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="11">
-        <v>0</v>
-      </c>
-      <c r="G24" s="11">
-        <v>0</v>
-      </c>
-      <c r="H24" s="11">
+      <c r="E24" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="12">
+        <v>0</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0</v>
+      </c>
+      <c r="H24" s="12">
         <v>3</v>
       </c>
       <c r="I24" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="11">
-        <v>0</v>
-      </c>
-      <c r="K24" s="11">
-        <v>0</v>
-      </c>
-      <c r="L24" s="11">
-        <v>0</v>
-      </c>
-      <c r="M24" s="11">
-        <v>1</v>
-      </c>
-      <c r="N24" s="11">
-        <v>1</v>
-      </c>
-      <c r="O24" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="J24" s="12">
+        <v>0</v>
+      </c>
+      <c r="K24" s="12">
+        <v>0</v>
+      </c>
+      <c r="L24" s="12">
+        <v>0</v>
+      </c>
+      <c r="M24" s="12">
+        <v>1</v>
+      </c>
+      <c r="N24" s="12">
+        <v>1</v>
+      </c>
+      <c r="O24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="11" t="s">
+      <c r="F25" s="12">
+        <v>0</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0</v>
+      </c>
+      <c r="H25" s="12">
+        <v>1</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0</v>
+      </c>
+      <c r="L25" s="12">
+        <v>0</v>
+      </c>
+      <c r="M25" s="12">
+        <v>1</v>
+      </c>
+      <c r="N25" s="12">
+        <v>1</v>
+      </c>
+      <c r="O25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="C26" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="D26" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="11">
-        <v>0</v>
-      </c>
-      <c r="G25" s="11">
-        <v>0</v>
-      </c>
-      <c r="H25" s="11">
-        <v>1</v>
-      </c>
-      <c r="I25" s="13" t="s">
+      <c r="E26" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0</v>
+      </c>
+      <c r="H26" s="12">
+        <v>3</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="12">
+        <v>0</v>
+      </c>
+      <c r="K26" s="12">
+        <v>0</v>
+      </c>
+      <c r="L26" s="12">
+        <v>0</v>
+      </c>
+      <c r="M26" s="12">
+        <v>1</v>
+      </c>
+      <c r="N26" s="12">
+        <v>1</v>
+      </c>
+      <c r="O26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="J25" s="11">
-        <v>0</v>
-      </c>
-      <c r="K25" s="11">
-        <v>0</v>
-      </c>
-      <c r="L25" s="11">
-        <v>0</v>
-      </c>
-      <c r="M25" s="11">
-        <v>1</v>
-      </c>
-      <c r="N25" s="11">
-        <v>1</v>
-      </c>
-      <c r="O25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="B27" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="11">
-        <v>0</v>
-      </c>
-      <c r="G26" s="11">
-        <v>0</v>
-      </c>
-      <c r="H26" s="11">
-        <v>3</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="J26" s="11">
-        <v>0</v>
-      </c>
-      <c r="K26" s="11">
-        <v>0</v>
-      </c>
-      <c r="L26" s="11">
-        <v>0</v>
-      </c>
-      <c r="M26" s="11">
-        <v>1</v>
-      </c>
-      <c r="N26" s="11">
-        <v>1</v>
-      </c>
-      <c r="O26" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="11">
-        <v>0</v>
-      </c>
-      <c r="G27" s="11">
-        <v>0</v>
-      </c>
-      <c r="H27" s="11">
+      <c r="F27" s="12">
+        <v>0</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0</v>
+      </c>
+      <c r="H27" s="12">
         <v>1</v>
       </c>
       <c r="I27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J27" s="11">
-        <v>0</v>
-      </c>
-      <c r="K27" s="11">
-        <v>0</v>
-      </c>
-      <c r="L27" s="11">
-        <v>0</v>
-      </c>
-      <c r="M27" s="11">
-        <v>1</v>
-      </c>
-      <c r="N27" s="11">
-        <v>1</v>
-      </c>
-      <c r="O27" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="11">
-        <v>0</v>
-      </c>
-      <c r="G28" s="11">
-        <v>0</v>
-      </c>
-      <c r="H28" s="11">
+      <c r="J27" s="12">
+        <v>0</v>
+      </c>
+      <c r="K27" s="12">
+        <v>0</v>
+      </c>
+      <c r="L27" s="12">
+        <v>0</v>
+      </c>
+      <c r="M27" s="12">
+        <v>1</v>
+      </c>
+      <c r="N27" s="12">
+        <v>1</v>
+      </c>
+      <c r="O27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="12">
+        <v>0</v>
+      </c>
+      <c r="G28" s="12">
+        <v>0</v>
+      </c>
+      <c r="H28" s="12">
         <v>3</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="J28" s="11">
-        <v>0</v>
-      </c>
-      <c r="K28" s="11">
-        <v>0</v>
-      </c>
-      <c r="L28" s="11">
-        <v>0</v>
-      </c>
-      <c r="M28" s="11">
-        <v>1</v>
-      </c>
-      <c r="N28" s="11">
-        <v>1</v>
-      </c>
-      <c r="O28" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="J28" s="12">
+        <v>0</v>
+      </c>
+      <c r="K28" s="12">
+        <v>0</v>
+      </c>
+      <c r="L28" s="12">
+        <v>0</v>
+      </c>
+      <c r="M28" s="12">
+        <v>1</v>
+      </c>
+      <c r="N28" s="12">
+        <v>1</v>
+      </c>
+      <c r="O28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" s="11">
-        <v>0</v>
-      </c>
-      <c r="G29" s="11">
-        <v>0</v>
-      </c>
-      <c r="H29" s="11">
+      <c r="D29" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="12">
+        <v>0</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0</v>
+      </c>
+      <c r="H29" s="12">
         <v>1</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="J29" s="11">
-        <v>0</v>
-      </c>
-      <c r="K29" s="11">
-        <v>0</v>
-      </c>
-      <c r="L29" s="11">
-        <v>0</v>
-      </c>
-      <c r="M29" s="11">
-        <v>1</v>
-      </c>
-      <c r="N29" s="11">
-        <v>1</v>
-      </c>
-      <c r="O29" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29" s="12">
+        <v>0</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
+      <c r="L29" s="12">
+        <v>0</v>
+      </c>
+      <c r="M29" s="12">
+        <v>1</v>
+      </c>
+      <c r="N29" s="12">
+        <v>1</v>
+      </c>
+      <c r="O29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="11">
-        <v>0</v>
-      </c>
-      <c r="G30" s="11">
-        <v>0</v>
-      </c>
-      <c r="H30" s="11">
+      <c r="D30" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="12">
+        <v>0</v>
+      </c>
+      <c r="G30" s="12">
+        <v>0</v>
+      </c>
+      <c r="H30" s="12">
         <v>3</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="J30" s="11">
-        <v>0</v>
-      </c>
-      <c r="K30" s="11">
-        <v>0</v>
-      </c>
-      <c r="L30" s="11">
-        <v>0</v>
-      </c>
-      <c r="M30" s="11">
-        <v>1</v>
-      </c>
-      <c r="N30" s="11">
-        <v>1</v>
-      </c>
-      <c r="O30" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F31" s="11">
-        <v>0</v>
-      </c>
-      <c r="G31" s="11">
-        <v>0</v>
-      </c>
-      <c r="H31" s="11">
+        <v>46</v>
+      </c>
+      <c r="J30" s="12">
+        <v>0</v>
+      </c>
+      <c r="K30" s="12">
+        <v>0</v>
+      </c>
+      <c r="L30" s="12">
+        <v>0</v>
+      </c>
+      <c r="M30" s="12">
+        <v>1</v>
+      </c>
+      <c r="N30" s="12">
+        <v>1</v>
+      </c>
+      <c r="O30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="12">
+        <v>0</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0</v>
+      </c>
+      <c r="H31" s="12">
         <v>1</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J31" s="11">
-        <v>0</v>
-      </c>
-      <c r="K31" s="11">
-        <v>0</v>
-      </c>
-      <c r="L31" s="11">
-        <v>0</v>
-      </c>
-      <c r="M31" s="11">
-        <v>1</v>
-      </c>
-      <c r="N31" s="11">
-        <v>1</v>
-      </c>
-      <c r="O31" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F32" s="11">
-        <v>0</v>
-      </c>
-      <c r="G32" s="11">
-        <v>0</v>
-      </c>
-      <c r="H32" s="11">
+      <c r="J31" s="12">
+        <v>0</v>
+      </c>
+      <c r="K31" s="12">
+        <v>0</v>
+      </c>
+      <c r="L31" s="12">
+        <v>0</v>
+      </c>
+      <c r="M31" s="12">
+        <v>1</v>
+      </c>
+      <c r="N31" s="12">
+        <v>1</v>
+      </c>
+      <c r="O31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="12">
+        <v>0</v>
+      </c>
+      <c r="G32" s="12">
+        <v>0</v>
+      </c>
+      <c r="H32" s="12">
         <v>3</v>
       </c>
       <c r="I32" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="J32" s="11">
-        <v>0</v>
-      </c>
-      <c r="K32" s="11">
-        <v>0</v>
-      </c>
-      <c r="L32" s="11">
-        <v>0</v>
-      </c>
-      <c r="M32" s="11">
-        <v>1</v>
-      </c>
-      <c r="N32" s="11">
-        <v>1</v>
-      </c>
-      <c r="O32" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F33" s="11">
-        <v>0</v>
-      </c>
-      <c r="G33" s="11">
-        <v>0</v>
-      </c>
-      <c r="H33" s="11">
+      <c r="J32" s="12">
+        <v>0</v>
+      </c>
+      <c r="K32" s="12">
+        <v>0</v>
+      </c>
+      <c r="L32" s="12">
+        <v>0</v>
+      </c>
+      <c r="M32" s="12">
+        <v>1</v>
+      </c>
+      <c r="N32" s="12">
+        <v>1</v>
+      </c>
+      <c r="O32" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="12">
+        <v>0</v>
+      </c>
+      <c r="G33" s="12">
+        <v>0</v>
+      </c>
+      <c r="H33" s="12">
         <v>1</v>
       </c>
       <c r="I33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J33" s="11">
-        <v>0</v>
-      </c>
-      <c r="K33" s="11">
-        <v>0</v>
-      </c>
-      <c r="L33" s="11">
-        <v>0</v>
-      </c>
-      <c r="M33" s="11">
-        <v>1</v>
-      </c>
-      <c r="N33" s="11">
-        <v>1</v>
-      </c>
-      <c r="O33" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F34" s="11">
-        <v>0</v>
-      </c>
-      <c r="G34" s="11">
-        <v>0</v>
-      </c>
-      <c r="H34" s="11">
+      <c r="J33" s="12">
+        <v>0</v>
+      </c>
+      <c r="K33" s="12">
+        <v>0</v>
+      </c>
+      <c r="L33" s="12">
+        <v>0</v>
+      </c>
+      <c r="M33" s="12">
+        <v>1</v>
+      </c>
+      <c r="N33" s="12">
+        <v>1</v>
+      </c>
+      <c r="O33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="12">
+        <v>0</v>
+      </c>
+      <c r="G34" s="12">
+        <v>0</v>
+      </c>
+      <c r="H34" s="12">
         <v>3</v>
       </c>
       <c r="I34" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="J34" s="11">
-        <v>0</v>
-      </c>
-      <c r="K34" s="11">
-        <v>0</v>
-      </c>
-      <c r="L34" s="11">
-        <v>0</v>
-      </c>
-      <c r="M34" s="11">
-        <v>1</v>
-      </c>
-      <c r="N34" s="11">
-        <v>1</v>
-      </c>
-      <c r="O34" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F35" s="11">
-        <v>0</v>
-      </c>
-      <c r="G35" s="11">
-        <v>0</v>
-      </c>
-      <c r="H35" s="11">
+      <c r="J34" s="12">
+        <v>0</v>
+      </c>
+      <c r="K34" s="12">
+        <v>0</v>
+      </c>
+      <c r="L34" s="12">
+        <v>0</v>
+      </c>
+      <c r="M34" s="12">
+        <v>1</v>
+      </c>
+      <c r="N34" s="12">
+        <v>1</v>
+      </c>
+      <c r="O34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" s="12">
+        <v>0</v>
+      </c>
+      <c r="G35" s="12">
+        <v>0</v>
+      </c>
+      <c r="H35" s="12">
         <v>3</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="J35" s="11">
-        <v>0</v>
-      </c>
-      <c r="K35" s="11">
-        <v>0</v>
-      </c>
-      <c r="L35" s="11">
-        <v>0</v>
-      </c>
-      <c r="M35" s="11">
-        <v>1</v>
-      </c>
-      <c r="N35" s="11">
-        <v>1</v>
-      </c>
-      <c r="O35" s="11">
+        <v>46</v>
+      </c>
+      <c r="J35" s="12">
+        <v>0</v>
+      </c>
+      <c r="K35" s="12">
+        <v>0</v>
+      </c>
+      <c r="L35" s="12">
+        <v>0</v>
+      </c>
+      <c r="M35" s="12">
+        <v>1</v>
+      </c>
+      <c r="N35" s="12">
+        <v>1</v>
+      </c>
+      <c r="O35" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" s="12">
+        <v>0</v>
+      </c>
+      <c r="G36" s="12">
+        <v>0</v>
+      </c>
+      <c r="H36" s="12">
+        <v>3</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J36" s="12">
+        <v>0</v>
+      </c>
+      <c r="K36" s="12">
+        <v>0</v>
+      </c>
+      <c r="L36" s="12">
+        <v>0</v>
+      </c>
+      <c r="M36" s="12">
+        <v>1</v>
+      </c>
+      <c r="N36" s="12">
+        <v>1</v>
+      </c>
+      <c r="O36" s="12">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C15">
-    <cfRule type="duplicateValues" dxfId="3" priority="3" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="2" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="1" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14 A22 A25:A65431">
     <cfRule type="duplicateValues" dxfId="0" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Resource/excel/table/K-框架-条件定义-(框架定义,后端维护).xlsx
+++ b/Resource/excel/table/K-框架-条件定义-(框架定义,后端维护).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\table\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="24260" tabRatio="710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="24255" tabRatio="710"/>
   </bookViews>
   <sheets>
     <sheet name="conditiondefine" sheetId="14" r:id="rId1"/>
@@ -24,7 +29,7 @@
     <author>PCC</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="1">
+    <comment ref="I6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N6" authorId="1">
+    <comment ref="N6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O6" authorId="1">
+    <comment ref="O6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="2">
+    <comment ref="F7" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="2">
+    <comment ref="H7" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="2">
+    <comment ref="J7" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -183,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K7" authorId="2">
+    <comment ref="K7" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="1">
+    <comment ref="L7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M7" authorId="1">
+    <comment ref="M7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +267,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="118">
   <si>
     <t>xml=conditiondefine</t>
   </si>
@@ -617,32 +622,45 @@
     <t>里程数</t>
   </si>
   <si>
-    <t>score</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
     <t>每日在线时长</t>
   </si>
   <si>
+    <t>onlinetime</t>
+  </si>
+  <si>
     <t>dayonlinetime</t>
-  </si>
-  <si>
-    <t>onlinetime</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>todayscore</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>player</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ndlessscore</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -682,158 +700,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -854,13 +739,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor theme="4" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
+        <fgColor theme="8" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,198 +769,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1111,255 +810,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1423,59 +880,14 @@
     <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1488,7 +900,37 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1504,18 +946,21 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="2"/>
-      <tableStyleElement type="headerRow" dxfId="1"/>
+      <tableStyleElement type="wholeTable" dxfId="5"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="0005FF6F"/>
+      <color rgb="FF05FF6F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1844,19 +1289,19 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.875" style="11" customWidth="1"/>
     <col min="2" max="2" width="29.875" style="12" customWidth="1"/>
@@ -1875,7 +1320,7 @@
     <col min="16" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17" spans="1:5">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1892,7 +1337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="16.8" spans="1:15">
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1936,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="16.8" spans="1:15">
+    <row r="3" spans="1:15" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1980,17 +1425,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="16.8" spans="1:1">
+    <row r="4" spans="1:15" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" ht="16.8" spans="1:1">
+    <row r="5" spans="1:15" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" ht="16.8" spans="1:15">
+    <row r="6" spans="1:15" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -2037,7 +1482,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" ht="16.8" spans="1:15">
+    <row r="7" spans="1:15" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -2084,7 +1529,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="1" ht="16.8" spans="1:15">
+    <row r="8" spans="1:15" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -2125,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="7" customFormat="1" ht="16.8" spans="1:15">
+    <row r="9" spans="1:15" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>47</v>
       </c>
@@ -2166,7 +1611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="7" customFormat="1" ht="16.8" spans="1:15">
+    <row r="10" spans="1:15" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>50</v>
       </c>
@@ -2207,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="7" customFormat="1" ht="16.8" spans="1:15">
+    <row r="11" spans="1:15" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>53</v>
       </c>
@@ -2248,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="8" customFormat="1" ht="16.8" spans="1:15">
+    <row r="12" spans="1:15" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>55</v>
       </c>
@@ -2295,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="8" customFormat="1" ht="16.8" spans="1:15">
+    <row r="13" spans="1:15" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>59</v>
       </c>
@@ -2342,7 +1787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="9" customFormat="1" ht="16.8" spans="1:15">
+    <row r="14" spans="1:15" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -2383,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="9" customFormat="1" ht="16.8" spans="1:15">
+    <row r="15" spans="1:15" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
         <v>65</v>
       </c>
@@ -2424,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="10" customFormat="1" ht="16.8" spans="1:15">
+    <row r="16" spans="1:15" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>68</v>
       </c>
@@ -2465,7 +1910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="10" customFormat="1" ht="16.8" spans="1:15">
+    <row r="17" spans="1:15" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>71</v>
       </c>
@@ -2506,7 +1951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" s="10" customFormat="1" ht="16.8" spans="1:15">
+    <row r="18" spans="1:15" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
         <v>74</v>
       </c>
@@ -2547,7 +1992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="7" customFormat="1" ht="16.8" spans="1:15">
+    <row r="19" spans="1:15" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>77</v>
       </c>
@@ -2591,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="7" customFormat="1" ht="16.8" spans="1:15">
+    <row r="20" spans="1:15" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>80</v>
       </c>
@@ -2635,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="10" customFormat="1" ht="16.8" spans="1:15">
+    <row r="21" spans="1:15" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>84</v>
       </c>
@@ -2679,7 +2124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>88</v>
       </c>
@@ -2723,7 +2168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>91</v>
       </c>
@@ -2770,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>91</v>
       </c>
@@ -2814,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>96</v>
       </c>
@@ -2861,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>96</v>
       </c>
@@ -2905,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>99</v>
       </c>
@@ -2952,7 +2397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>99</v>
       </c>
@@ -2996,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>102</v>
       </c>
@@ -3043,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>102</v>
       </c>
@@ -3087,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>105</v>
       </c>
@@ -3134,7 +2579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>105</v>
       </c>
@@ -3178,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>108</v>
       </c>
@@ -3225,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>108</v>
       </c>
@@ -3269,18 +2714,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>113</v>
+      <c r="C35" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>117</v>
       </c>
       <c r="F35" s="12">
         <v>0</v>
@@ -3313,18 +2758,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>114</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>115</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>44</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F36" s="12">
         <v>0</v>
@@ -3358,21 +2803,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C15">
-    <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14 A22 A25:A65431">
     <cfRule type="duplicateValues" dxfId="0" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resource/excel/table/K-框架-条件定义-(框架定义,后端维护).xlsx
+++ b/Resource/excel/table/K-框架-条件定义-(框架定义,后端维护).xlsx
@@ -267,7 +267,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="119">
   <si>
     <t>xml=conditiondefine</t>
   </si>
@@ -653,6 +653,10 @@
       </rPr>
       <t>ndlessscore</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1297,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2737,7 +2741,7 @@
         <v>3</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="J35" s="12">
         <v>0</v>
